--- a/Resources/[3DBroadCastSales]-Script_Result.xlsx
+++ b/Resources/[3DBroadCastSales]-Script_Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="41">
   <si>
     <t>Sr. No</t>
   </si>

--- a/Resources/[3DBroadCastSales]-Script_Result.xlsx
+++ b/Resources/[3DBroadCastSales]-Script_Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
   <si>
     <t>Sr. No</t>
   </si>

--- a/Resources/[3DBroadCastSales]-Script_Result.xlsx
+++ b/Resources/[3DBroadCastSales]-Script_Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
   <si>
     <t>Sr. No</t>
   </si>

--- a/Resources/[3DBroadCastSales]-Script_Result.xlsx
+++ b/Resources/[3DBroadCastSales]-Script_Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="41">
   <si>
     <t>Sr. No</t>
   </si>

--- a/Resources/[3DBroadCastSales]-Script_Result.xlsx
+++ b/Resources/[3DBroadCastSales]-Script_Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="41">
   <si>
     <t>Sr. No</t>
   </si>
